--- a/Code/Results/Cases/Case_3_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_224/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.167265093930695</v>
+        <v>0.5207228070979113</v>
       </c>
       <c r="C2">
-        <v>0.1010077664094382</v>
+        <v>0.1469444347302797</v>
       </c>
       <c r="D2">
-        <v>0.07241140467907314</v>
+        <v>0.04310057380408949</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5252740223870944</v>
+        <v>0.8769724483368364</v>
       </c>
       <c r="G2">
-        <v>0.0008111387697264161</v>
+        <v>0.002453848141947394</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3982302692824753</v>
+        <v>0.8444350495859503</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9673733074361337</v>
+        <v>0.3103589639591178</v>
       </c>
       <c r="L2">
-        <v>0.3996522837920935</v>
+        <v>0.3027314813407571</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.598948800393117</v>
+        <v>3.106186664742836</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.01432623204289</v>
+        <v>0.4760722566516904</v>
       </c>
       <c r="C3">
-        <v>0.1003789848722043</v>
+        <v>0.1467719285681817</v>
       </c>
       <c r="D3">
-        <v>0.06614503316634313</v>
+        <v>0.04087274509502947</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5053686539847888</v>
+        <v>0.8785232598701427</v>
       </c>
       <c r="G3">
-        <v>0.0008148045772284304</v>
+        <v>0.002456241627494174</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4015778302104245</v>
+        <v>0.8514222371491798</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8451147670809007</v>
+        <v>0.2724810991288109</v>
       </c>
       <c r="L3">
-        <v>0.3527033665751986</v>
+        <v>0.2915323450551597</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.580700340938947</v>
+        <v>3.124885900227142</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.920621797539809</v>
+        <v>0.4487487078082211</v>
       </c>
       <c r="C4">
-        <v>0.100019872091611</v>
+        <v>0.1466798740983712</v>
       </c>
       <c r="D4">
-        <v>0.06228264188084864</v>
+        <v>0.03949149556009246</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4941991641649111</v>
+        <v>0.8799975084742968</v>
       </c>
       <c r="G4">
-        <v>0.0008171305279742747</v>
+        <v>0.002457790177935385</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4044766357010765</v>
+        <v>0.8561503377242303</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7700552559645644</v>
+        <v>0.2491835487336687</v>
       </c>
       <c r="L4">
-        <v>0.3242777240163406</v>
+        <v>0.2848281627347546</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.572917817298844</v>
+        <v>3.138093725426785</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8824733348830591</v>
+        <v>0.4376379893352009</v>
       </c>
       <c r="C5">
-        <v>0.09988026501826042</v>
+        <v>0.1466458751946291</v>
       </c>
       <c r="D5">
-        <v>0.06070466839432243</v>
+        <v>0.03892529582365967</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4898996629846337</v>
+        <v>0.8807295611691757</v>
       </c>
       <c r="G5">
-        <v>0.0008180975825896275</v>
+        <v>0.002458441133364043</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4058620414509733</v>
+        <v>0.8581871937662129</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7394601943975943</v>
+        <v>0.2396800007927311</v>
       </c>
       <c r="L5">
-        <v>0.3127861336227795</v>
+        <v>0.2821395033813587</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.570570177203209</v>
+        <v>3.143910097293542</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8761406549884896</v>
+        <v>0.4357945240412846</v>
       </c>
       <c r="C6">
-        <v>0.09985748891871893</v>
+        <v>0.1466404427545882</v>
       </c>
       <c r="D6">
-        <v>0.06044239625698822</v>
+        <v>0.03883107854780832</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4892006092350769</v>
+        <v>0.8808590475767346</v>
       </c>
       <c r="G6">
-        <v>0.0008182593307180938</v>
+        <v>0.00245855042812108</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4061041895856192</v>
+        <v>0.8585320627433468</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7343791717138117</v>
+        <v>0.2381013798646592</v>
       </c>
       <c r="L6">
-        <v>0.3108832770247432</v>
+        <v>0.2816956736681391</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.570229068218879</v>
+        <v>3.144902117184103</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9201071822202493</v>
+        <v>0.4485987672798899</v>
       </c>
       <c r="C7">
-        <v>0.1000179620895132</v>
+        <v>0.1466794013105925</v>
       </c>
       <c r="D7">
-        <v>0.0622613774188423</v>
+        <v>0.03948387303522338</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4941401747114327</v>
+        <v>0.8800068496121938</v>
       </c>
       <c r="G7">
-        <v>0.0008171434918103861</v>
+        <v>0.002457798876104818</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4044945035435781</v>
+        <v>0.8561773616286636</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7696426837791819</v>
+        <v>0.2490554187315297</v>
       </c>
       <c r="L7">
-        <v>0.3241223828454878</v>
+        <v>0.2847917269269544</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.572882867914032</v>
+        <v>3.13817040956053</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.114481660887463</v>
+        <v>0.5053085920417573</v>
       </c>
       <c r="C8">
-        <v>0.100785336697335</v>
+        <v>0.1468820932555701</v>
       </c>
       <c r="D8">
-        <v>0.07025365060295741</v>
+        <v>0.04233520651903433</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5181844962388666</v>
+        <v>0.8773988232358008</v>
       </c>
       <c r="G8">
-        <v>0.0008123873432224909</v>
+        <v>0.002454657066581165</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3992045571013421</v>
+        <v>0.8467533334220931</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.925210940078756</v>
+        <v>0.2973073760006173</v>
       </c>
       <c r="L8">
-        <v>0.3833755918490596</v>
+        <v>0.2988343280366763</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.591923824194708</v>
+        <v>3.112275812109075</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.497911851023247</v>
+        <v>0.6172219749585395</v>
       </c>
       <c r="C9">
-        <v>0.1025066686598421</v>
+        <v>0.1473884334784188</v>
       </c>
       <c r="D9">
-        <v>0.08582380755785124</v>
+        <v>0.04781969422979415</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5742823055930799</v>
+        <v>0.8764271884825519</v>
       </c>
       <c r="G9">
-        <v>0.0008036414670351117</v>
+        <v>0.002449119684124872</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3959007749745851</v>
+        <v>0.8317481948379424</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.230819531324244</v>
+        <v>0.3915893237252419</v>
       </c>
       <c r="L9">
-        <v>0.5031780524242748</v>
+        <v>0.3277365301812267</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.658164100757574</v>
+        <v>3.075198868358882</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.782015779960091</v>
+        <v>0.6998497859752604</v>
       </c>
       <c r="C10">
-        <v>0.1039077224013027</v>
+        <v>0.1478253487236572</v>
       </c>
       <c r="D10">
-        <v>0.09722377791243986</v>
+        <v>0.05178293112383159</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6218305576741443</v>
+        <v>0.8782410708210477</v>
       </c>
       <c r="G10">
-        <v>0.0007975476120579744</v>
+        <v>0.002445427857540801</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3983386627212369</v>
+        <v>0.8228435728691821</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.45641001898781</v>
+        <v>0.4606315092820239</v>
       </c>
       <c r="L10">
-        <v>0.5940275778968669</v>
+        <v>0.3498040966372855</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.727025461715641</v>
+        <v>3.056319809934251</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.912027182837193</v>
+        <v>0.7375224846797437</v>
       </c>
       <c r="C11">
-        <v>0.1045758755075568</v>
+        <v>0.1480379069546203</v>
       </c>
       <c r="D11">
-        <v>0.1024069539799299</v>
+        <v>0.05357134085846837</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6450449880753766</v>
+        <v>0.8796157026952756</v>
       </c>
       <c r="G11">
-        <v>0.0007948421508373175</v>
+        <v>0.002443829307024844</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4006357786295354</v>
+        <v>0.8192531351800127</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.559443193308738</v>
+        <v>0.491987649049122</v>
       </c>
       <c r="L11">
-        <v>0.636122381326274</v>
+        <v>0.3600245084145115</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.763348918190673</v>
+        <v>3.049548765482399</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.961391390111743</v>
+        <v>0.7517997740303599</v>
       </c>
       <c r="C12">
-        <v>0.1048334240072535</v>
+        <v>0.1481203561260358</v>
       </c>
       <c r="D12">
-        <v>0.1043697738367797</v>
+        <v>0.05424645764811231</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6540820960362623</v>
+        <v>0.8802152731424115</v>
       </c>
       <c r="G12">
-        <v>0.0007938267942225411</v>
+        <v>0.002443235548013756</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4016882832257593</v>
+        <v>0.8179597435858312</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.598533658807156</v>
+        <v>0.5038535365653729</v>
       </c>
       <c r="L12">
-        <v>0.6521861655586747</v>
+        <v>0.3639208223555386</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.777877133223683</v>
+        <v>3.047246170471198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.950753718774763</v>
+        <v>0.748724406753098</v>
       </c>
       <c r="C13">
-        <v>0.1047777529296354</v>
+        <v>0.1481025125646838</v>
       </c>
       <c r="D13">
-        <v>0.1039470350090568</v>
+        <v>0.05410115374912294</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6521245310377992</v>
+        <v>0.8800826299927778</v>
       </c>
       <c r="G13">
-        <v>0.0007940450701527201</v>
+        <v>0.002443362910528925</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4014532882765565</v>
+        <v>0.8182353524759378</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.590111284558844</v>
+        <v>0.5012983707581782</v>
       </c>
       <c r="L13">
-        <v>0.6487208353287315</v>
+        <v>0.3630805233028269</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.774712918683946</v>
+        <v>3.047730444948797</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.916085641401054</v>
+        <v>0.7386968605707125</v>
       </c>
       <c r="C14">
-        <v>0.1045969726861316</v>
+        <v>0.1480446510106503</v>
       </c>
       <c r="D14">
-        <v>0.1025684323441212</v>
+        <v>0.05362692569678984</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.645783429771754</v>
+        <v>0.8796634458325414</v>
       </c>
       <c r="G14">
-        <v>0.0007947584362222631</v>
+        <v>0.002443780226483727</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4007186380803986</v>
+        <v>0.8191453995382219</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.562657615919846</v>
+        <v>0.4929640265421824</v>
       </c>
       <c r="L14">
-        <v>0.6374414070470635</v>
+        <v>0.3603445385239468</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.764528338556858</v>
+        <v>3.049354088848588</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.894868240015597</v>
+        <v>0.7325561686285766</v>
       </c>
       <c r="C15">
-        <v>0.1044868332260762</v>
+        <v>0.1480094633299629</v>
       </c>
       <c r="D15">
-        <v>0.1017240207945704</v>
+        <v>0.05333617091611842</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6419319680404598</v>
+        <v>0.8794169754249097</v>
       </c>
       <c r="G15">
-        <v>0.0007951965706073383</v>
+        <v>0.002444037350475773</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4002927920353869</v>
+        <v>0.8197114557021834</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.54585155614177</v>
+        <v>0.4878579402716809</v>
       </c>
       <c r="L15">
-        <v>0.6305489063963563</v>
+        <v>0.3586720612397727</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.758392382366253</v>
+        <v>3.050382670908192</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.773536491233557</v>
+        <v>0.6973894304878172</v>
       </c>
       <c r="C16">
-        <v>0.1038646855079719</v>
+        <v>0.1478117329956063</v>
       </c>
       <c r="D16">
-        <v>0.09688502847207303</v>
+        <v>0.0516657600962489</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6203468735611182</v>
+        <v>0.8781622935055324</v>
       </c>
       <c r="G16">
-        <v>0.0007977257244824451</v>
+        <v>0.002445533949598063</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3982134380018323</v>
+        <v>0.8230874822915624</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.449686079885367</v>
+        <v>0.4585812244832823</v>
       </c>
       <c r="L16">
-        <v>0.5912931158816974</v>
+        <v>0.3491398201537663</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.724756793575978</v>
+        <v>3.056798891937689</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.699315233317833</v>
+        <v>0.6758369834069811</v>
       </c>
       <c r="C17">
-        <v>0.1034909782650431</v>
+        <v>0.1476939479521704</v>
       </c>
       <c r="D17">
-        <v>0.09391607851070205</v>
+        <v>0.05063728399396439</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.607523687327344</v>
+        <v>0.8775333323565491</v>
       </c>
       <c r="G17">
-        <v>0.0007992940457247135</v>
+        <v>0.002446472742172945</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3972502618257892</v>
+        <v>0.8252764897093527</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.390807208396922</v>
+        <v>0.4406072926653621</v>
       </c>
       <c r="L17">
-        <v>0.5674164280419518</v>
+        <v>0.3433386026024152</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.705440245457027</v>
+        <v>3.061200555297859</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.656696373040006</v>
+        <v>0.6634486212123534</v>
       </c>
       <c r="C18">
-        <v>0.1032789245215824</v>
+        <v>0.1476275019351547</v>
       </c>
       <c r="D18">
-        <v>0.09220813100517944</v>
+        <v>0.05004437010266116</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6002960925991374</v>
+        <v>0.8772232903068016</v>
       </c>
       <c r="G18">
-        <v>0.0008002024054575087</v>
+        <v>0.002447020326832266</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3968073468972904</v>
+        <v>0.8265788741980771</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.356979357314344</v>
+        <v>0.4302643509061284</v>
       </c>
       <c r="L18">
-        <v>0.5537545347627599</v>
+        <v>0.34001900864709</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.6947968356437</v>
+        <v>3.063903303970221</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.642277985581103</v>
+        <v>0.6592555376444693</v>
       </c>
       <c r="C19">
-        <v>0.103207620645108</v>
+        <v>0.1476052286963139</v>
       </c>
       <c r="D19">
-        <v>0.09162978686448042</v>
+        <v>0.04984338675895117</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5978738237537016</v>
+        <v>0.8771271979466064</v>
       </c>
       <c r="G19">
-        <v>0.000800511055981723</v>
+        <v>0.002447207039032301</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3966761151529354</v>
+        <v>0.8270272792786173</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.345531869112222</v>
+        <v>0.4267616003742774</v>
       </c>
       <c r="L19">
-        <v>0.5491407213411463</v>
+        <v>0.3388979925086062</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.691271757889439</v>
+        <v>3.064847777888559</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.707208693402379</v>
+        <v>0.6781304520174842</v>
       </c>
       <c r="C20">
-        <v>0.1035304599354774</v>
+        <v>0.1477063519373161</v>
       </c>
       <c r="D20">
-        <v>0.09423215470965829</v>
+        <v>0.05074690818761241</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6088732940688075</v>
+        <v>0.8775949334546596</v>
       </c>
       <c r="G20">
-        <v>0.0007991264460638401</v>
+        <v>0.002446372018292853</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3973412145319202</v>
+        <v>0.8250389818633153</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.397070956352252</v>
+        <v>0.442521150701964</v>
       </c>
       <c r="L20">
-        <v>0.5699506660753713</v>
+        <v>0.3439543815071886</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.707447813157614</v>
+        <v>3.060714288825437</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.926264747842936</v>
+        <v>0.7416418890229579</v>
       </c>
       <c r="C21">
-        <v>0.1046499483060259</v>
+        <v>0.1480615934247993</v>
       </c>
       <c r="D21">
-        <v>0.1029733558365677</v>
+        <v>0.05376627563030212</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.647639126805224</v>
+        <v>0.8797844255204836</v>
       </c>
       <c r="G21">
-        <v>0.0007945486588563878</v>
+        <v>0.002443657336694591</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4009293679501766</v>
+        <v>0.8188762989291405</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.570719289725758</v>
+        <v>0.4954122473872076</v>
       </c>
       <c r="L21">
-        <v>0.6407509904756949</v>
+        <v>0.3611474567328656</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.767498355106625</v>
+        <v>3.048870088336258</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.070209047855599</v>
+        <v>0.7832167113577384</v>
       </c>
       <c r="C22">
-        <v>0.1054080796258674</v>
+        <v>0.1483051645904538</v>
       </c>
       <c r="D22">
-        <v>0.1086868430727037</v>
+        <v>0.05572726321869226</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6744200027517664</v>
+        <v>0.8816760205874132</v>
       </c>
       <c r="G22">
-        <v>0.0007916098755626698</v>
+        <v>0.002441950593348007</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4043450483525319</v>
+        <v>0.8152346805192678</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.684647835136786</v>
+        <v>0.5299327187330221</v>
       </c>
       <c r="L22">
-        <v>0.6877491082236133</v>
+        <v>0.3725360228545753</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.811280443296482</v>
+        <v>3.042653233006632</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.993304742777127</v>
+        <v>0.7610216159645802</v>
       </c>
       <c r="C23">
-        <v>0.10500099032717</v>
+        <v>0.1481741317677461</v>
       </c>
       <c r="D23">
-        <v>0.1056372322401984</v>
+        <v>0.05468178722914274</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6599878774232408</v>
+        <v>0.8806242890337614</v>
       </c>
       <c r="G23">
-        <v>0.0007931736578654092</v>
+        <v>0.00244285535951707</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4024199633454018</v>
+        <v>0.8171429453125043</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.623796589018582</v>
+        <v>0.5115129831730485</v>
       </c>
       <c r="L23">
-        <v>0.6625943182486367</v>
+        <v>0.3664438560922179</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.787479060694579</v>
+        <v>3.045831788906384</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.703639899905028</v>
+        <v>0.6770935672446114</v>
       </c>
       <c r="C24">
-        <v>0.1035126015724472</v>
+        <v>0.1477007401384398</v>
       </c>
       <c r="D24">
-        <v>0.09408925999161255</v>
+        <v>0.05069735216216031</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.608262687764622</v>
+        <v>0.8775669230049985</v>
       </c>
       <c r="G24">
-        <v>0.000799202196969389</v>
+        <v>0.00244641753109228</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3972997504912144</v>
+        <v>0.8251462224321386</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.394239047258083</v>
+        <v>0.4416559249968941</v>
       </c>
       <c r="L24">
-        <v>0.5688047351676744</v>
+        <v>0.3436759392587305</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.706538757071371</v>
+        <v>3.060933593594854</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.393840601818368</v>
+        <v>0.5868735050169676</v>
       </c>
       <c r="C25">
-        <v>0.1020174045658848</v>
+        <v>0.1472399523984933</v>
       </c>
       <c r="D25">
-        <v>0.08162036377934356</v>
+        <v>0.04634755100340726</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5580610517094868</v>
+        <v>0.8762463015492941</v>
       </c>
       <c r="G25">
-        <v>0.000805947509460189</v>
+        <v>0.002450551309323709</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3959824271091037</v>
+        <v>0.8354353197679707</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.148014140038384</v>
+        <v>0.3661219813189689</v>
       </c>
       <c r="L25">
-        <v>0.4703193427420302</v>
+        <v>0.3197714952218007</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.636894154010832</v>
+        <v>3.08376139890197</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_224/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_224/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5207228070979113</v>
+        <v>1.167265093930666</v>
       </c>
       <c r="C2">
-        <v>0.1469444347302797</v>
+        <v>0.101007766409424</v>
       </c>
       <c r="D2">
-        <v>0.04310057380408949</v>
+        <v>0.07241140467905183</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8769724483368364</v>
+        <v>0.5252740223871015</v>
       </c>
       <c r="G2">
-        <v>0.002453848141947394</v>
+        <v>0.0008111387696840404</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8444350495859503</v>
+        <v>0.3982302692824717</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3103589639591178</v>
+        <v>0.9673733074361053</v>
       </c>
       <c r="L2">
-        <v>0.3027314813407571</v>
+        <v>0.3996522837921219</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.106186664742836</v>
+        <v>1.598948800393089</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4760722566516904</v>
+        <v>1.014326232042862</v>
       </c>
       <c r="C3">
-        <v>0.1467719285681817</v>
+        <v>0.1003789848722079</v>
       </c>
       <c r="D3">
-        <v>0.04087274509502947</v>
+        <v>0.06614503316633602</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8785232598701427</v>
+        <v>0.5053686539847746</v>
       </c>
       <c r="G3">
-        <v>0.002456241627494174</v>
+        <v>0.0008148045771873702</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8514222371491798</v>
+        <v>0.401577830210428</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2724810991288109</v>
+        <v>0.8451147670810712</v>
       </c>
       <c r="L3">
-        <v>0.2915323450551597</v>
+        <v>0.3527033665750992</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.124885900227142</v>
+        <v>1.580700340938989</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4487487078082211</v>
+        <v>0.9206217975398943</v>
       </c>
       <c r="C4">
-        <v>0.1466798740983712</v>
+        <v>0.1000198720916039</v>
       </c>
       <c r="D4">
-        <v>0.03949149556009246</v>
+        <v>0.06228264188077048</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8799975084742968</v>
+        <v>0.4941991641649039</v>
       </c>
       <c r="G4">
-        <v>0.002457790177935385</v>
+        <v>0.0008171305280141841</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8561503377242303</v>
+        <v>0.4044766357010658</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2491835487336687</v>
+        <v>0.7700552559644791</v>
       </c>
       <c r="L4">
-        <v>0.2848281627347546</v>
+        <v>0.3242777240164827</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.138093725426785</v>
+        <v>1.572917817298716</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4376379893352009</v>
+        <v>0.8824733348831728</v>
       </c>
       <c r="C5">
-        <v>0.1466458751946291</v>
+        <v>0.0998802650184949</v>
       </c>
       <c r="D5">
-        <v>0.03892529582365967</v>
+        <v>0.06070466839419453</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8807295611691757</v>
+        <v>0.4898996629846479</v>
       </c>
       <c r="G5">
-        <v>0.002458441133364043</v>
+        <v>0.0008180975826486019</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8581871937662129</v>
+        <v>0.4058620414509768</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2396800007927311</v>
+        <v>0.7394601943976085</v>
       </c>
       <c r="L5">
-        <v>0.2821395033813587</v>
+        <v>0.3127861336226943</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.143910097293542</v>
+        <v>1.570570177203152</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4357945240412846</v>
+        <v>0.876140654988518</v>
       </c>
       <c r="C6">
-        <v>0.1466404427545882</v>
+        <v>0.0998574889184134</v>
       </c>
       <c r="D6">
-        <v>0.03883107854780832</v>
+        <v>0.06044239625706638</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8808590475767346</v>
+        <v>0.4892006092350911</v>
       </c>
       <c r="G6">
-        <v>0.00245855042812108</v>
+        <v>0.0008182593307538404</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8585320627433468</v>
+        <v>0.4061041895856405</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2381013798646592</v>
+        <v>0.7343791717137833</v>
       </c>
       <c r="L6">
-        <v>0.2816956736681391</v>
+        <v>0.3108832770246579</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.144902117184103</v>
+        <v>1.570229068218907</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4485987672798899</v>
+        <v>0.9201071822202209</v>
       </c>
       <c r="C7">
-        <v>0.1466794013105925</v>
+        <v>0.1000179620895096</v>
       </c>
       <c r="D7">
-        <v>0.03948387303522338</v>
+        <v>0.06226137741906967</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8800068496121938</v>
+        <v>0.4941401747114114</v>
       </c>
       <c r="G7">
-        <v>0.002457798876104818</v>
+        <v>0.0008171434918873801</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8561773616286636</v>
+        <v>0.404494503543571</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2490554187315297</v>
+        <v>0.7696426837792387</v>
       </c>
       <c r="L7">
-        <v>0.2847917269269544</v>
+        <v>0.3241223828454878</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.13817040956053</v>
+        <v>1.572882867914061</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5053085920417573</v>
+        <v>1.114481660887463</v>
       </c>
       <c r="C8">
-        <v>0.1468820932555701</v>
+        <v>0.1007853366973421</v>
       </c>
       <c r="D8">
-        <v>0.04233520651903433</v>
+        <v>0.07025365060298583</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8773988232358008</v>
+        <v>0.5181844962388737</v>
       </c>
       <c r="G8">
-        <v>0.002454657066581165</v>
+        <v>0.0008123873432419604</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8467533334220931</v>
+        <v>0.3992045571013314</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2973073760006173</v>
+        <v>0.9252109400786708</v>
       </c>
       <c r="L8">
-        <v>0.2988343280366763</v>
+        <v>0.3833755918490596</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.112275812109075</v>
+        <v>1.591923824194623</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6172219749585395</v>
+        <v>1.497911851023304</v>
       </c>
       <c r="C9">
-        <v>0.1473884334784188</v>
+        <v>0.1025066686599274</v>
       </c>
       <c r="D9">
-        <v>0.04781969422979415</v>
+        <v>0.08582380755773755</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8764271884825519</v>
+        <v>0.5742823055930799</v>
       </c>
       <c r="G9">
-        <v>0.002449119684124872</v>
+        <v>0.0008036414670113529</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8317481948379424</v>
+        <v>0.3959007749745886</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3915893237252419</v>
+        <v>1.230819531324215</v>
       </c>
       <c r="L9">
-        <v>0.3277365301812267</v>
+        <v>0.5031780524242322</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.075198868358882</v>
+        <v>1.658164100757574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6998497859752604</v>
+        <v>1.782015779960176</v>
       </c>
       <c r="C10">
-        <v>0.1478253487236572</v>
+        <v>0.1039077224012956</v>
       </c>
       <c r="D10">
-        <v>0.05178293112383159</v>
+        <v>0.09722377791231196</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8782410708210477</v>
+        <v>0.6218305576741301</v>
       </c>
       <c r="G10">
-        <v>0.002445427857540801</v>
+        <v>0.0007975476120909761</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8228435728691821</v>
+        <v>0.3983386627212226</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4606315092820239</v>
+        <v>1.456410018987611</v>
       </c>
       <c r="L10">
-        <v>0.3498040966372855</v>
+        <v>0.5940275778967816</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.056319809934251</v>
+        <v>1.727025461715584</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7375224846797437</v>
+        <v>1.912027182837107</v>
       </c>
       <c r="C11">
-        <v>0.1480379069546203</v>
+        <v>0.1045758755075568</v>
       </c>
       <c r="D11">
-        <v>0.05357134085846837</v>
+        <v>0.1024069539798731</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8796157026952756</v>
+        <v>0.6450449880753624</v>
       </c>
       <c r="G11">
-        <v>0.002443829307024844</v>
+        <v>0.0007948421508945291</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8192531351800127</v>
+        <v>0.4006357786295069</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.491987649049122</v>
+        <v>1.559443193308738</v>
       </c>
       <c r="L11">
-        <v>0.3600245084145115</v>
+        <v>0.6361223813262598</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.049548765482399</v>
+        <v>1.763348918190758</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7517997740303599</v>
+        <v>1.961391390111771</v>
       </c>
       <c r="C12">
-        <v>0.1481203561260358</v>
+        <v>0.1048334240075874</v>
       </c>
       <c r="D12">
-        <v>0.05424645764811231</v>
+        <v>0.1043697738367797</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8802152731424115</v>
+        <v>0.6540820960362552</v>
       </c>
       <c r="G12">
-        <v>0.002443235548013756</v>
+        <v>0.0007938267942471655</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8179597435858312</v>
+        <v>0.4016882832257593</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5038535365653729</v>
+        <v>1.598533658807099</v>
       </c>
       <c r="L12">
-        <v>0.3639208223555386</v>
+        <v>0.6521861655586605</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.047246170471198</v>
+        <v>1.777877133223598</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.748724406753098</v>
+        <v>1.950753718774877</v>
       </c>
       <c r="C13">
-        <v>0.1481025125646838</v>
+        <v>0.1047777529297207</v>
       </c>
       <c r="D13">
-        <v>0.05410115374912294</v>
+        <v>0.1039470350092841</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8800826299927778</v>
+        <v>0.6521245310378063</v>
       </c>
       <c r="G13">
-        <v>0.002443362910528925</v>
+        <v>0.0007940450701264362</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8182353524759378</v>
+        <v>0.4014532882765494</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5012983707581782</v>
+        <v>1.590111284558731</v>
       </c>
       <c r="L13">
-        <v>0.3630805233028269</v>
+        <v>0.6487208353287315</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.047730444948797</v>
+        <v>1.774712918683861</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7386968605707125</v>
+        <v>1.916085641400969</v>
       </c>
       <c r="C14">
-        <v>0.1480446510106503</v>
+        <v>0.1045969726857479</v>
       </c>
       <c r="D14">
-        <v>0.05362692569678984</v>
+        <v>0.1025684323437588</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8796634458325414</v>
+        <v>0.6457834297717611</v>
       </c>
       <c r="G14">
-        <v>0.002443780226483727</v>
+        <v>0.0007947584363039022</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8191453995382219</v>
+        <v>0.4007186380803915</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4929640265421824</v>
+        <v>1.562657615919733</v>
       </c>
       <c r="L14">
-        <v>0.3603445385239468</v>
+        <v>0.6374414070471062</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.049354088848588</v>
+        <v>1.764528338556858</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7325561686285766</v>
+        <v>1.894868240015654</v>
       </c>
       <c r="C15">
-        <v>0.1480094633299629</v>
+        <v>0.1044868332265381</v>
       </c>
       <c r="D15">
-        <v>0.05333617091611842</v>
+        <v>0.1017240207947339</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8794169754249097</v>
+        <v>0.6419319680404598</v>
       </c>
       <c r="G15">
-        <v>0.002444037350475773</v>
+        <v>0.0007951965706058384</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8197114557021834</v>
+        <v>0.400292792035394</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4878579402716809</v>
+        <v>1.545851556141656</v>
       </c>
       <c r="L15">
-        <v>0.3586720612397727</v>
+        <v>0.6305489063963563</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.050382670908192</v>
+        <v>1.758392382366253</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6973894304878172</v>
+        <v>1.77353649123333</v>
       </c>
       <c r="C16">
-        <v>0.1478117329956063</v>
+        <v>0.1038646855077445</v>
       </c>
       <c r="D16">
-        <v>0.0516657600962489</v>
+        <v>0.09688502847200908</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8781622935055324</v>
+        <v>0.6203468735610969</v>
       </c>
       <c r="G16">
-        <v>0.002445533949598063</v>
+        <v>0.0007977257245302169</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8230874822915624</v>
+        <v>0.3982134380018394</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4585812244832823</v>
+        <v>1.449686079885339</v>
       </c>
       <c r="L16">
-        <v>0.3491398201537663</v>
+        <v>0.5912931158817685</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.056798891937689</v>
+        <v>1.724756793575949</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6758369834069811</v>
+        <v>1.699315233317947</v>
       </c>
       <c r="C17">
-        <v>0.1476939479521704</v>
+        <v>0.1034909782648015</v>
       </c>
       <c r="D17">
-        <v>0.05063728399396439</v>
+        <v>0.09391607851058836</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8775333323565491</v>
+        <v>0.607523687327344</v>
       </c>
       <c r="G17">
-        <v>0.002446472742172945</v>
+        <v>0.0007992940457241389</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8252764897093527</v>
+        <v>0.3972502618257892</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4406072926653621</v>
+        <v>1.390807208396893</v>
       </c>
       <c r="L17">
-        <v>0.3433386026024152</v>
+        <v>0.5674164280418807</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.061200555297859</v>
+        <v>1.705440245457027</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6634486212123534</v>
+        <v>1.656696373039949</v>
       </c>
       <c r="C18">
-        <v>0.1476275019351547</v>
+        <v>0.1032789245214403</v>
       </c>
       <c r="D18">
-        <v>0.05004437010266116</v>
+        <v>0.09220813100523628</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8772232903068016</v>
+        <v>0.6002960925991374</v>
       </c>
       <c r="G18">
-        <v>0.002447020326832266</v>
+        <v>0.0008002024054336697</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8265788741980771</v>
+        <v>0.3968073468972833</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4302643509061284</v>
+        <v>1.356979357314344</v>
       </c>
       <c r="L18">
-        <v>0.34001900864709</v>
+        <v>0.553754534762831</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.063903303970221</v>
+        <v>1.6947968356437</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6592555376444693</v>
+        <v>1.642277985581131</v>
       </c>
       <c r="C19">
-        <v>0.1476052286963139</v>
+        <v>0.1032076206452004</v>
       </c>
       <c r="D19">
-        <v>0.04984338675895117</v>
+        <v>0.09162978686446621</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8771271979466064</v>
+        <v>0.5978738237537016</v>
       </c>
       <c r="G19">
-        <v>0.002447207039032301</v>
+        <v>0.0008005110560612911</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8270272792786173</v>
+        <v>0.3966761151529283</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4267616003742774</v>
+        <v>1.345531869112193</v>
       </c>
       <c r="L19">
-        <v>0.3388979925086062</v>
+        <v>0.5491407213411037</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.064847777888559</v>
+        <v>1.691271757889439</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6781304520174842</v>
+        <v>1.70720869340235</v>
       </c>
       <c r="C20">
-        <v>0.1477063519373161</v>
+        <v>0.1035304599357048</v>
       </c>
       <c r="D20">
-        <v>0.05074690818761241</v>
+        <v>0.09423215470977908</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8775949334546596</v>
+        <v>0.6088732940688288</v>
       </c>
       <c r="G20">
-        <v>0.002446372018292853</v>
+        <v>0.0007991264460808867</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8250389818633153</v>
+        <v>0.3973412145318989</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.442521150701964</v>
+        <v>1.397070956352309</v>
       </c>
       <c r="L20">
-        <v>0.3439543815071886</v>
+        <v>0.5699506660754281</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.060714288825437</v>
+        <v>1.707447813157643</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7416418890229579</v>
+        <v>1.926264747842907</v>
       </c>
       <c r="C21">
-        <v>0.1480615934247993</v>
+        <v>0.104649948305898</v>
       </c>
       <c r="D21">
-        <v>0.05376627563030212</v>
+        <v>0.1029733558366175</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8797844255204836</v>
+        <v>0.647639126805224</v>
       </c>
       <c r="G21">
-        <v>0.002443657336694591</v>
+        <v>0.0007945486588852833</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8188762989291405</v>
+        <v>0.4009293679501695</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4954122473872076</v>
+        <v>1.570719289725901</v>
       </c>
       <c r="L21">
-        <v>0.3611474567328656</v>
+        <v>0.6407509904756665</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.048870088336258</v>
+        <v>1.767498355106625</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7832167113577384</v>
+        <v>2.070209047855315</v>
       </c>
       <c r="C22">
-        <v>0.1483051645904538</v>
+        <v>0.1054080796258674</v>
       </c>
       <c r="D22">
-        <v>0.05572726321869226</v>
+        <v>0.1086868430728742</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8816760205874132</v>
+        <v>0.6744200027517664</v>
       </c>
       <c r="G22">
-        <v>0.002441950593348007</v>
+        <v>0.0007916098755624281</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8152346805192678</v>
+        <v>0.4043450483525248</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5299327187330221</v>
+        <v>1.684647835136758</v>
       </c>
       <c r="L22">
-        <v>0.3725360228545753</v>
+        <v>0.6877491082236276</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.042653233006632</v>
+        <v>1.811280443296454</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7610216159645802</v>
+        <v>1.993304742776985</v>
       </c>
       <c r="C23">
-        <v>0.1481741317677461</v>
+        <v>0.1050009903269356</v>
       </c>
       <c r="D23">
-        <v>0.05468178722914274</v>
+        <v>0.1056372322404329</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8806242890337614</v>
+        <v>0.6599878774232266</v>
       </c>
       <c r="G23">
-        <v>0.00244285535951707</v>
+        <v>0.0007931736578657159</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8171429453125043</v>
+        <v>0.4024199633453875</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5115129831730485</v>
+        <v>1.623796589018525</v>
       </c>
       <c r="L23">
-        <v>0.3664438560922179</v>
+        <v>0.6625943182486651</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.045831788906384</v>
+        <v>1.787479060694579</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6770935672446114</v>
+        <v>1.703639899905227</v>
       </c>
       <c r="C24">
-        <v>0.1477007401384398</v>
+        <v>0.1035126015724401</v>
       </c>
       <c r="D24">
-        <v>0.05069735216216031</v>
+        <v>0.09408925999137097</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8775669230049985</v>
+        <v>0.608262687764622</v>
       </c>
       <c r="G24">
-        <v>0.00244641753109228</v>
+        <v>0.0007992021969390244</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8251462224321386</v>
+        <v>0.3972997504912144</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4416559249968941</v>
+        <v>1.394239047258083</v>
       </c>
       <c r="L24">
-        <v>0.3436759392587305</v>
+        <v>0.5688047351677312</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.060933593594854</v>
+        <v>1.706538757071428</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5868735050169676</v>
+        <v>1.393840601818425</v>
       </c>
       <c r="C25">
-        <v>0.1472399523984933</v>
+        <v>0.1020174045655651</v>
       </c>
       <c r="D25">
-        <v>0.04634755100340726</v>
+        <v>0.08162036377934356</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8762463015492941</v>
+        <v>0.558061051709501</v>
       </c>
       <c r="G25">
-        <v>0.002450551309323709</v>
+        <v>0.0008059475094007431</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8354353197679707</v>
+        <v>0.3959824271091037</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3661219813189689</v>
+        <v>1.148014140038384</v>
       </c>
       <c r="L25">
-        <v>0.3197714952218007</v>
+        <v>0.4703193427419876</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.08376139890197</v>
+        <v>1.636894154010861</v>
       </c>
     </row>
   </sheetData>
